--- a/TestDic/DataFile/total_predict.xlsx
+++ b/TestDic/DataFile/total_predict.xlsx
@@ -85,24 +85,6 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>ma RelativeError:26.82% PassRate:50.49%</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -121,6 +103,13 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="15875"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="4"/>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>ma!$A$2:$A$308</c:f>
@@ -1997,6 +1986,13 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="15875"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>ma!$A$2:$A$308</c:f>
@@ -2934,13 +2930,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="307"/>
                 <c:pt idx="0">
-                  <c:v>825521</c:v>
+                  <c:v>111662</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>567411</c:v>
+                  <c:v>116262</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>345610</c:v>
+                  <c:v>126230</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>133582</c:v>
@@ -3868,8 +3864,42 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="1" baseline="0">
+                    <a:latin typeface="Times New Roman"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="800" b="1" baseline="0">
+                    <a:latin typeface="Times New Roman"/>
+                  </a:rPr>
+                  <a:t>Period Number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="1" baseline="0">
+                <a:latin typeface="Times New Roman"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="50010002"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
@@ -3881,8 +3911,42 @@
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="1" baseline="0">
+                    <a:latin typeface="Times New Roman"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="800" b="1" baseline="0">
+                    <a:latin typeface="Times New Roman"/>
+                  </a:rPr>
+                  <a:t>Number of Request</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="1" baseline="0">
+                <a:latin typeface="Times New Roman"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="50010001"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
@@ -3891,6 +3955,18 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="800" b="1" baseline="0">
+              <a:latin typeface="Times New Roman"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -3906,24 +3982,6 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>periodic RelativeError:16.8% PassRate:59.28%</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -3942,6 +4000,13 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="15875"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="4"/>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>periodic!$A$2:$A$308</c:f>
@@ -5818,6 +5883,13 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="15875"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>periodic!$A$2:$A$308</c:f>
@@ -7687,10 +7759,46 @@
         <c:axId val="50020001"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="310"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1500" b="1" baseline="0">
+                    <a:latin typeface="Times New Roman"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1500" b="1" baseline="0">
+                    <a:latin typeface="Times New Roman"/>
+                  </a:rPr>
+                  <a:t>Period Number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="1" baseline="0">
+                <a:latin typeface="Times New Roman"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="50020002"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
@@ -7699,11 +7807,46 @@
         <c:axId val="50020002"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="7000000"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1500" b="1" baseline="0">
+                    <a:latin typeface="Times New Roman"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1500" b="1" baseline="0">
+                    <a:latin typeface="Times New Roman"/>
+                  </a:rPr>
+                  <a:t>Number of Requests</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="1" baseline="0">
+                <a:latin typeface="Times New Roman"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="50020001"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
@@ -7712,6 +7855,18 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="1" baseline="0">
+              <a:latin typeface="Times New Roman"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -7727,24 +7882,6 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>daily RelativeError:22.58% PassRate:51.47%</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -7763,6 +7900,13 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="15875"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="4"/>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>daily!$A$2:$A$308</c:f>
@@ -9639,6 +9783,13 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="15875"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>daily!$A$2:$A$308</c:f>
@@ -11510,8 +11661,42 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="1" baseline="0">
+                    <a:latin typeface="Times New Roman"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="800" b="1" baseline="0">
+                    <a:latin typeface="Times New Roman"/>
+                  </a:rPr>
+                  <a:t>Period Number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="1" baseline="0">
+                <a:latin typeface="Times New Roman"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="50030002"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
@@ -11523,8 +11708,42 @@
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="1" baseline="0">
+                    <a:latin typeface="Times New Roman"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="800" b="1" baseline="0">
+                    <a:latin typeface="Times New Roman"/>
+                  </a:rPr>
+                  <a:t>Number of Request</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="1" baseline="0">
+                <a:latin typeface="Times New Roman"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="50030001"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
@@ -11533,6 +11752,18 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="800" b="1" baseline="0">
+              <a:latin typeface="Times New Roman"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -11548,24 +11779,6 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>acrc RelativeError:15.26% PassRate:68.4%</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -11584,6 +11797,13 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="15875"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="4"/>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>acrc!$A$2:$A$308</c:f>
@@ -13460,6 +13680,13 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="15875"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>acrc!$A$2:$A$308</c:f>
@@ -15329,10 +15556,46 @@
         <c:axId val="50040001"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="310"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1500" b="1" baseline="0">
+                    <a:latin typeface="Times New Roman"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1500" b="1" baseline="0">
+                    <a:latin typeface="Times New Roman"/>
+                  </a:rPr>
+                  <a:t>Period Number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="1" baseline="0">
+                <a:latin typeface="Times New Roman"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="50040002"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
@@ -15344,8 +15607,42 @@
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1500" b="1" baseline="0">
+                    <a:latin typeface="Times New Roman"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1500" b="1" baseline="0">
+                    <a:latin typeface="Times New Roman"/>
+                  </a:rPr>
+                  <a:t>Number of Requests</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="1" baseline="0">
+                <a:latin typeface="Times New Roman"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="50040001"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
@@ -15354,6 +15651,18 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="1" baseline="0">
+              <a:latin typeface="Times New Roman"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -15375,9 +15684,9 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -15410,10 +15719,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15445,9 +15754,9 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -15480,10 +15789,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15815,7 +16124,7 @@
         <v>120861</v>
       </c>
       <c r="C2">
-        <v>825521</v>
+        <v>111662</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -15826,7 +16135,7 @@
         <v>146165</v>
       </c>
       <c r="C3">
-        <v>567411</v>
+        <v>116262</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -15837,7 +16146,7 @@
         <v>155640</v>
       </c>
       <c r="C4">
-        <v>345610</v>
+        <v>126230</v>
       </c>
     </row>
     <row r="5" spans="1:3">
